--- a/class_schedules_spring_2019/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
+++ b/class_schedules_spring_2019/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>101</t>
   </si>
@@ -142,91 +142,133 @@
     <t>S</t>
   </si>
   <si>
-    <t>Intro to GSFS TR</t>
-  </si>
-  <si>
-    <t>Devotion &amp; Perform in S Asia MWF</t>
-  </si>
-  <si>
-    <t>Latinas/os Comparative Perspec MWF</t>
-  </si>
-  <si>
-    <t>Visible Bodies TR</t>
-  </si>
-  <si>
-    <t>Gender and Public Health TR</t>
-  </si>
-  <si>
-    <t>Intro Feminist Science Studies TR</t>
-  </si>
-  <si>
-    <t>Relg &amp; Culture in Indian Epics MW</t>
-  </si>
-  <si>
-    <t>Roots of Rel Feminism N Amer MWF</t>
-  </si>
-  <si>
-    <t>Abortion and Religion TR</t>
-  </si>
-  <si>
-    <t>Transnational Feminisms TR 0300-0415pm RICE</t>
-  </si>
-  <si>
-    <t>Sexual ?Absences? MW</t>
-  </si>
-  <si>
-    <t>Gender &amp; Visual Arts in Europe MWF</t>
-  </si>
-  <si>
-    <t>Feminist Ethnography TR 0930-1050am WARN</t>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Intro to GSFS</t>
+  </si>
+  <si>
+    <t>Devotion &amp; Perform in S Asia</t>
+  </si>
+  <si>
+    <t>Latinas/os Comparative Perspec</t>
+  </si>
+  <si>
+    <t>Visible Bodies</t>
+  </si>
+  <si>
+    <t>Gender and Public Health</t>
+  </si>
+  <si>
+    <t>Intro Feminist Science Studies</t>
+  </si>
+  <si>
+    <t>Relg &amp; Culture in Indian Epics</t>
+  </si>
+  <si>
+    <t>Roots of Rel Feminism N Amer</t>
+  </si>
+  <si>
+    <t>Abortion and Religion</t>
+  </si>
+  <si>
+    <t>Transnational Feminisms TR 0300</t>
+  </si>
+  <si>
+    <t>Sexual ?Absences?</t>
+  </si>
+  <si>
+    <t>Gender &amp; Visual Arts in Europe</t>
+  </si>
+  <si>
+    <t>Feminist Ethnography TR 0930</t>
   </si>
   <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>Disability Studies T</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0130-0245pm</t>
-  </si>
-  <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>0800-0915am</t>
-  </si>
-  <si>
-    <t>0230-0345pm</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
+    <t>Disability Studies</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>WARN</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>0245pm</t>
+  </si>
+  <si>
+    <t>1215pm</t>
+  </si>
+  <si>
+    <t>0915am</t>
+  </si>
+  <si>
+    <t>0345pm</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>0130-0220pm</t>
+    <t>0220pm</t>
   </si>
   <si>
     <t>DANC</t>
   </si>
   <si>
-    <t>Capstone</t>
-  </si>
-  <si>
-    <t>0100-0250pm</t>
-  </si>
-  <si>
-    <t>Honors</t>
+    <t>0250pm</t>
   </si>
   <si>
     <t>Full</t>
@@ -244,10 +286,7 @@
     <t>AJLC</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>RICE</t>
+    <t>Mattson Greggor</t>
   </si>
   <si>
     <t>321</t>
@@ -305,9 +344,6 @@
   </si>
   <si>
     <t>Neilson Christina</t>
-  </si>
-  <si>
-    <t>Mattson Greggor</t>
   </si>
 </sst>
 </file>
@@ -665,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -702,8 +738,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -726,19 +768,25 @@
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,19 +809,25 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -793,22 +847,28 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -828,22 +888,28 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,22 +929,28 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -898,22 +970,28 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -933,22 +1011,28 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -968,22 +1052,28 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1003,22 +1093,28 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1038,22 +1134,28 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1073,22 +1175,28 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1108,22 +1216,28 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1143,22 +1257,28 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1177,23 +1297,23 @@
       <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1213,22 +1333,28 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1244,11 +1370,11 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
@@ -1257,10 +1383,10 @@
         <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1279,23 +1405,23 @@
       <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>76</v>
       </c>
-      <c r="K18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1314,20 +1440,20 @@
       <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
         <v>76</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>76</v>
       </c>
-      <c r="K19" t="s">
-        <v>97</v>
+      <c r="M19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
